--- a/first_homework/data_sand.xlsx
+++ b/first_homework/data_sand.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\ESALQ_Doutorado\Ano 2020\1sem 2020\Multivariada\Dados Mc Donalds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYHir\Google Drive\ESALQ\Doutorado (2019 - Atual)\Disciplinas\(2020) 1º Semestre\LCE5860 - Análise Multivariada\LCE5860_multivariate-analysis\first_homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91997AB-042B-4130-8C4C-72076D8C270B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{954BA4DB-8600-4FD6-8531-414C20240967}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,40 +95,40 @@
     <t>Sanduiches</t>
   </si>
   <si>
-    <t>valorenerg</t>
-  </si>
-  <si>
     <t>carboidrato</t>
   </si>
   <si>
     <t>proteina</t>
   </si>
   <si>
-    <t>godtotais</t>
-  </si>
-  <si>
-    <t>gordsaturada</t>
-  </si>
-  <si>
-    <t>gordtrans</t>
-  </si>
-  <si>
     <t>col</t>
   </si>
   <si>
-    <t>fibraalim</t>
-  </si>
-  <si>
     <t>sodio</t>
   </si>
   <si>
     <t>acucar</t>
+  </si>
+  <si>
+    <t>valor_energ</t>
+  </si>
+  <si>
+    <t>g_totais</t>
+  </si>
+  <si>
+    <t>g_saturada</t>
+  </si>
+  <si>
+    <t>g_trans</t>
+  </si>
+  <si>
+    <t>fibra_alim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,24 +473,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1D0043-D826-4689-A000-5AAFE4433924}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -501,34 +500,34 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">

--- a/first_homework/data_sand.xlsx
+++ b/first_homework/data_sand.xlsx
@@ -32,39 +32,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>Big Mac</t>
-  </si>
-  <si>
-    <t>Big Tasty</t>
-  </si>
-  <si>
     <t>Quarterao</t>
   </si>
   <si>
-    <t>McNifico Bacon</t>
-  </si>
-  <si>
-    <t>Cheddar McMelt</t>
-  </si>
-  <si>
     <t>McFish</t>
   </si>
   <si>
     <t>McChicken</t>
   </si>
   <si>
-    <t>Duplo Salada</t>
-  </si>
-  <si>
-    <t>Extra Chicken</t>
-  </si>
-  <si>
-    <t>Chicken Supreme Grill</t>
-  </si>
-  <si>
-    <t>Chicken Supreme Crispy</t>
-  </si>
-  <si>
     <t>Cheeseburger</t>
   </si>
   <si>
@@ -74,24 +50,9 @@
     <t>ClubHouse</t>
   </si>
   <si>
-    <t>ClubHouse com Crispy</t>
-  </si>
-  <si>
     <t>McDuplo</t>
   </si>
   <si>
-    <t>Duplo Quarterao</t>
-  </si>
-  <si>
-    <t>EggCheese Bacon</t>
-  </si>
-  <si>
-    <t>4 Formaggi Carne</t>
-  </si>
-  <si>
-    <t>4 Formaggi Frango</t>
-  </si>
-  <si>
     <t>Sanduiches</t>
   </si>
   <si>
@@ -123,6 +84,45 @@
   </si>
   <si>
     <t>fibra_alim</t>
+  </si>
+  <si>
+    <t>Big_Mac</t>
+  </si>
+  <si>
+    <t>Big_Tasty</t>
+  </si>
+  <si>
+    <t>McNifico_Bacon</t>
+  </si>
+  <si>
+    <t>Cheddar_McMelt</t>
+  </si>
+  <si>
+    <t>Duplo_Salada</t>
+  </si>
+  <si>
+    <t>Extra_Chicken</t>
+  </si>
+  <si>
+    <t>Chicken_Supreme_Grill</t>
+  </si>
+  <si>
+    <t>Chicken_Supreme_Crispy</t>
+  </si>
+  <si>
+    <t>ClubHouse_com_Crispy</t>
+  </si>
+  <si>
+    <t>Duplo_Quarterao</t>
+  </si>
+  <si>
+    <t>EggCheese_Bacon</t>
+  </si>
+  <si>
+    <t>4_Formaggi_Carne</t>
+  </si>
+  <si>
+    <t>4_Formaggi_Frango</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,42 +497,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>502</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>837</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>528</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>571</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>468</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>338</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>404</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>390</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>345</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>402</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>472</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>302</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>248</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>819</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>607</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>333</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>766</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>417</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>911</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>700</v>

--- a/first_homework/data_sand.xlsx
+++ b/first_homework/data_sand.xlsx
@@ -158,8 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,56 +478,56 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -534,34 +535,34 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>502</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>45</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>27</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>66</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>5.4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>1047</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>8</v>
       </c>
     </row>
@@ -569,34 +570,34 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>837</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>41</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>41</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>57</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>24</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1.7</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>85</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>1345</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>9</v>
       </c>
     </row>
@@ -604,34 +605,34 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>528</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>33</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>31</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>69</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>2.6</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>1072</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>9</v>
       </c>
     </row>
@@ -639,34 +640,34 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>571</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>34</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>32</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>34</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>14</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.9</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>70</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>3.8</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>1099</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>10</v>
       </c>
     </row>
@@ -674,34 +675,34 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>468</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>30</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.9</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>65</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>2.4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>819</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>5.3</v>
       </c>
     </row>
@@ -709,34 +710,34 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>338</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>37</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>27</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>511</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>5.6</v>
       </c>
     </row>
@@ -744,34 +745,34 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>404</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>36</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>22</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>37</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>3.4</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>718</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>6.3</v>
       </c>
     </row>
@@ -779,34 +780,34 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>390</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>32</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>22</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>19</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6.9</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>55</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>3.2</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>764</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>7.9</v>
       </c>
     </row>
@@ -814,34 +815,34 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>345</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>35</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>13</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>17</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>21</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>3.5</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>662</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>6.7</v>
       </c>
     </row>
@@ -849,34 +850,34 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>402</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>30</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>29</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>18</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>5.9</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>75</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>3.1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>1164</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>7</v>
       </c>
     </row>
@@ -884,34 +885,34 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>472</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>37</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>27</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>9.1</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>48</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>3.6</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>1096</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>7</v>
       </c>
     </row>
@@ -919,34 +920,34 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>302</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>32</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>16</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>13</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.4</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>36</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>715</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>6.5</v>
       </c>
     </row>
@@ -954,34 +955,34 @@
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>248</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>31</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>8.1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>3.1</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>27</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>517</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>6</v>
       </c>
     </row>
@@ -989,34 +990,34 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>819</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>48</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>49</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>48</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>21</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1.3</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>111</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>3.6</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>1368</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>16</v>
       </c>
     </row>
@@ -1024,34 +1025,34 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>607</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>60</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>33</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>26</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>64</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>1680</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>17</v>
       </c>
     </row>
@@ -1059,34 +1060,34 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>333</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>31</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>22</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>14</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>5.8</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>53</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>680</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1094,34 +1095,34 @@
       <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>766</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>33</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>50</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>49</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>23</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1.7</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>119</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>2.6</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>1273</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>9.1</v>
       </c>
     </row>
@@ -1129,34 +1130,34 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>417</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>27</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>17</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>27</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>12</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.3</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>243</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>1.6</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>660</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -1164,34 +1165,34 @@
       <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>911</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>49</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>55</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>55</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>27</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1.7</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>143</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>3.6</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>1832</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>15</v>
       </c>
     </row>
@@ -1199,34 +1200,34 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>700</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>61</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>39</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>33</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>16</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>0.8</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>95</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>2143</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>16</v>
       </c>
     </row>
